--- a/biology/Botanique/Vinca_major/Vinca_major.xlsx
+++ b/biology/Botanique/Vinca_major/Vinca_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grande pervenche (Vinca major L.) est une espèce de plantes à fleurs de la famille des Apocynacées. C'est une plante herbacée pérenne originaire du sud de l'Europe, France comprise.
 </t>
@@ -511,14 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vinca major est une plante sempervirente à base sarmenteuse sur laquelle se développent des tiges rampantes formant des masses denses au sol mesurant entre 2 et 5 mètres de diamètre et 50 à 70 centimètres de haut. Les feuilles sont opposées, de 3 à 9 centimètres de long et de 2 à 6 centimètres de large, de couleur vert foncé et lustrées avec un pétiole duveteux de 1 à 2 centimètres de long. Les fleurs, violette et d'un diamètre de 3 à 5 centimètres, sont visibles du début du printemps jusqu'à l'automne et ont 5 pétales carrés asymétriques.
-Sous-espèces
-Il existe deux sous-espèces réparties géographiquement différemment :
-Vinca major subsp. major[1] : pétiole des feuilles peu duveteux. Sud de l'Europe.
-Vinca major subsp. hirsuta (Boiss.) Stearn (syn. V. pubescens d'Urv.) : pétioles des feuilles fortement duveteux, pétales plus étroits. Caucase, nord-est de la Turquie.
-L'espèce proche Vinca minor est plus petite, sans duvet sur les feuilles.
 </t>
         </is>
       </c>
@@ -544,12 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante se trouve dans le sud de l'Europe, depuis l'Espagne et le sud de la France jusqu'aux Balkans, également dans le nord-est de la Turquie et dans le Caucase occidental.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux sous-espèces réparties géographiquement différemment :
+Vinca major subsp. major : pétiole des feuilles peu duveteux. Sud de l'Europe.
+Vinca major subsp. hirsuta (Boiss.) Stearn (syn. V. pubescens d'Urv.) : pétioles des feuilles fortement duveteux, pétales plus étroits. Caucase, nord-est de la Turquie.
+L'espèce proche Vinca minor est plus petite, sans duvet sur les feuilles.
 </t>
         </is>
       </c>
@@ -575,14 +593,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se trouve dans le sud de l'Europe, depuis l'Espagne et le sud de la France jusqu'aux Balkans, également dans le nord-est de la Turquie et dans le Caucase occidental.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vinca_major</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinca_major</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vinca major est une plante ornementale courante dans les jardins de zones tempérées pour son feuillage persistant, sa couverture au sol, ses fleurs printanières et estivales.
-Cultivars
-Plusieurs cultivars sont disponibles avec des différences sur les fleurs qui vont du blanc au violet foncé et des motifs et des couleurs de variégation différents sur le feuillage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vinca_major</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinca_major</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs cultivars sont disponibles avec des différences sur les fleurs qui vont du blanc au violet foncé et des motifs et des couleurs de variégation différents sur le feuillage.
 			Détail de la fleur.
 			Fleurs.
 			Giant steps periwinkle, une variété de Vinca major.
@@ -591,33 +679,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Vinca_major</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vinca_major</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Plante invasive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vinca major est une plante invasive dans les zones tempérées des États-Unis, de l'Australie et de la Nouvelle-Zélande[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vinca major est une plante invasive dans les zones tempérées des États-Unis, de l'Australie et de la Nouvelle-Zélande.
 </t>
         </is>
       </c>
